--- a/Casos de prueba/TC-5.xlsx
+++ b/Casos de prueba/TC-5.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/Casos de prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DEDF9F3-25A4-254C-9167-C34C4C7CA5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F4993-26E6-004D-A8C9-460F56031349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC-5" sheetId="1" r:id="rId1"/>
+    <sheet name="TC-Carrito de compras" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -599,12 +599,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -651,9 +645,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -663,9 +726,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -677,66 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1074,10 +1074,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1086,460 +1086,502 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>2.1</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="D9" s="21">
+      <c r="B9" s="18"/>
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="D10" s="21">
+      <c r="B10" s="18"/>
+      <c r="D10" s="19">
         <v>3</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="30" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="G14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="35" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="35" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="35"/>
     </row>
     <row r="17" spans="1:14" ht="46" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="G17" s="42" t="s">
+      <c r="E17" s="39"/>
+      <c r="G17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="43">
+      <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="G18" s="46" t="s">
+      <c r="E18" s="33"/>
+      <c r="G18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47" t="s">
+      <c r="M18" s="27"/>
+      <c r="N18" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
+      <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="G19" s="46" t="s">
+      <c r="E19" s="33"/>
+      <c r="G19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47" t="s">
+      <c r="M19" s="27"/>
+      <c r="N19" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="43">
+      <c r="A20" s="26">
         <v>3</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="G20" s="46" t="s">
+      <c r="E20" s="33"/>
+      <c r="G20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47" t="s">
+      <c r="M20" s="27"/>
+      <c r="N20" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="43">
+      <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="20"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="31"/>
+      <c r="I25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="49"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -1548,48 +1590,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
